--- a/tasks/finalpool/reimbursement-form-filler/initial_workspace/Bill_Format.xlsx
+++ b/tasks/finalpool/reimbursement-form-filler/initial_workspace/Bill_Format.xlsx
@@ -1,54 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zws_zju_Junior2\summer intern\MCP-Benchmark\excel_complex\Life\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0510FC6F-457D-4E73-8A93-1B832BF19AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBB6FDE-01B9-F64C-BEC1-5F4C952C844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12980" yWindow="5280" windowWidth="27300" windowHeight="16360" xr2:uid="{58B8843B-A351-6840-93FA-99A74673F6DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expense Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Department</t>
-  </si>
-  <si>
-    <t>Report Period</t>
-  </si>
-  <si>
-    <t>R&amp;D Department</t>
-  </si>
-  <si>
-    <t>YYYY-MM to YYYY-MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applicant's name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total reimbursement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total Amount: CNY 1111.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expense details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,18 +74,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -90,15 +112,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -128,42 +154,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -193,12 +219,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -228,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -289,13 +349,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -304,6 +357,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -368,91 +428,112 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431A733C-E245-1C47-97B9-D5CA817177CE}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B5" s="1">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45809</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>1111.1099999999999</v>
-      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tasks/finalpool/reimbursement-form-filler/initial_workspace/Bill_Format.xlsx
+++ b/tasks/finalpool/reimbursement-form-filler/initial_workspace/Bill_Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lockon\Desktop\toolathlon\reimbursement-form-filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBB6FDE-01B9-F64C-BEC1-5F4C952C844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0139A64-C4AB-41B3-A244-4452136F0C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="5280" windowWidth="27300" windowHeight="16360" xr2:uid="{58B8843B-A351-6840-93FA-99A74673F6DD}"/>
+    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{58B8843B-A351-6840-93FA-99A74673F6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Department</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +57,12 @@
   <si>
     <t>File_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lei WANG</t>
+  </si>
+  <si>
+    <t>R&amp;D Department</t>
   </si>
 </sst>
 </file>
@@ -77,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,12 +458,12 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,14 +471,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -491,36 +494,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45748</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45778</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45809</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -531,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
